--- a/ig/27-search-parameter-ror-sp-capacity-update-date/StructureDefinition-ror-task.xlsx
+++ b/ig/27-search-parameter-ror-sp-capacity-update-date/StructureDefinition-ror-task.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-27T08:08:06+00:00</t>
+    <t>2023-04-27T08:10:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
